--- a/biology/Écologie/Pari_Ehrlich-Simon/Pari_Ehrlich-Simon.xlsx
+++ b/biology/Écologie/Pari_Ehrlich-Simon/Pari_Ehrlich-Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pari Ehrlich-Simon est un célèbre pari établi entre l'économiste Julian L. Simon et l'écologue Paul R. Ehrlich en 1980 au sujet de la raréfaction des ressources dans la décennie suivante.
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1968, le biologiste Paul R. Ehrlich publie The Population Bomb, un ouvrage qui affirme que la croissance démographique de l'humanité va engendrer une raréfaction des ressources et des famines. L'économiste Julian L. Simon n'y croit pas et le fait savoir, il propose alors un pari à Ehrlich pour régler leur différend[1].
-En 1980, Paul Ehrlich et Julian Simon se mettent d'accord sur les termes du pari[1]. Simon pensait que le prix des matières premières devrait diminuer en dépit de la croissance démographique tandis qu'Ehrlich pensait au contraire qu'il devrait augmenter compte tenu de leur raréfaction, les deux homme parient donc 1000$ sur cinq matières premières à hauteur de 200$ par matière première[1]. Simon laisse le choix à Ehrlich, il choisit le cuivre, le chrome, le nickel, l'étain et le tungstène[1]. Si, à la date convenue, le prix ajusté à l'inflation de ces métaux avait effectivement augmenté, Simon s'engageait à verser la différence combinée, dans le cas contraire, ce serait à Ehrlich de payer[1].
-À la date fatidique, en 1990, il apparut que le prix des cinq ressources avait baissé au cours de la décennie tandis que la population n'avait cessé de croître[1]. Ayant perdu le pari, Ehrlich envoya un chèque de 576,07 $ à Simon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1968, le biologiste Paul R. Ehrlich publie The Population Bomb, un ouvrage qui affirme que la croissance démographique de l'humanité va engendrer une raréfaction des ressources et des famines. L'économiste Julian L. Simon n'y croit pas et le fait savoir, il propose alors un pari à Ehrlich pour régler leur différend.
+En 1980, Paul Ehrlich et Julian Simon se mettent d'accord sur les termes du pari. Simon pensait que le prix des matières premières devrait diminuer en dépit de la croissance démographique tandis qu'Ehrlich pensait au contraire qu'il devrait augmenter compte tenu de leur raréfaction, les deux homme parient donc 1000$ sur cinq matières premières à hauteur de 200$ par matière première. Simon laisse le choix à Ehrlich, il choisit le cuivre, le chrome, le nickel, l'étain et le tungstène. Si, à la date convenue, le prix ajusté à l'inflation de ces métaux avait effectivement augmenté, Simon s'engageait à verser la différence combinée, dans le cas contraire, ce serait à Ehrlich de payer.
+À la date fatidique, en 1990, il apparut que le prix des cinq ressources avait baissé au cours de la décennie tandis que la population n'avait cessé de croître. Ayant perdu le pari, Ehrlich envoya un chèque de 576,07 $ à Simon.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Pourquoi Paul Ehrlich se trompait</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La baisse tendancielle des prix des matières est une constante au moins depuis le début de la révolution industrielle. La hausse de la productivité engendrée à la fois par la découverte permanente de matériaux de substitution, l'amélioration des techniques d'extraction et le progrès de la connaissance scientifique en général qui diffuse peu à peu dans l'industrie, l'expliquent très largement.
 Dans son ouvrage de référence L'Écologiste sceptique, Bjorn Lomborg consacre de très nombreuses pages à l'analyse des prix -corrigés de l'inflation- de nombreuses matières premières, des métaux jusqu'au pain en passant par le pétrole et le charbon. Les données chiffrées viennent parfaitement confirmer ce raisonnement économique.
